--- a/xlsx/截流站_intext.xlsx
+++ b/xlsx/截流站_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>截流站</t>
   </si>
@@ -29,13 +29,13 @@
     <t>河道</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_截流站</t>
+    <t>政策_政策_混合动力车辆_截流站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%99%E6%9F%93</t>
   </si>
   <si>
-    <t>汙染</t>
+    <t>污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B5%B7</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%B1%A4</t>
   </si>
   <si>
-    <t>地層</t>
+    <t>地层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E6%B0%B4</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>環境</t>
+    <t>环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B3%8A</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%98%E9%96%80</t>
   </si>
   <si>
-    <t>閘門</t>
+    <t>闸门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%95</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E6%97%B1</t>
   </si>
   <si>
-    <t>乾旱</t>
+    <t>干旱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>季節</t>
+    <t>季节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E5%AD%A3</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E9%A1%9E</t>
   </si>
   <si>
-    <t>魚類</t>
+    <t>鱼类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E9%BE%8D%E7%81%A3</t>
   </si>
   <si>
-    <t>九龍灣</t>
+    <t>九龙湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E9%A0%AD%E8%A7%92</t>
   </si>
   <si>
-    <t>牛頭角</t>
+    <t>牛头角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%95%A6%E8%B0%B7</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E5%BE%B7%E6%98%8E%E6%B8%A0</t>
   </si>
   <si>
-    <t>啟德明渠</t>
+    <t>启德明渠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A0%E5%8B%99%E7%BD%B2</t>
   </si>
   <si>
-    <t>渠務署</t>
+    <t>渠务署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A9%E6%96%87%E5%8F%B0</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B7%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>水淨化</t>
+    <t>水净化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>Template talk-環境科技</t>
+    <t>Template talk-环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%BD%B1%E5%93%8D%E8%AF%84%E4%BB%B7</t>
@@ -263,15 +263,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>污染</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Emission_standard</t>
   </si>
   <si>
@@ -281,13 +278,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>大氣擴散模式</t>
+    <t>大气扩散模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_solid_waste_treatment_technologies</t>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%B4%E8%99%95%E7%90%86%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>廢水處理技術列表</t>
+    <t>废水处理技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E4%BA%A4%E9%80%9A%E7%B3%BB%E7%BB%9F</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>電動載具</t>
+    <t>电动载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
@@ -419,13 +416,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>自然建築</t>
+    <t>自然建筑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_architecture</t>
@@ -437,19 +434,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>保育倫理</t>
+    <t>保育伦理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecoforestry</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境維護</t>
+    <t>环境维护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_remediation</t>
@@ -479,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2042,7 @@
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
         <v>8</v>
@@ -2071,10 +2068,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2100,10 +2097,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2129,10 +2126,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2158,10 +2155,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2187,10 +2184,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2216,10 +2213,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2245,10 +2242,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2274,10 +2271,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2303,10 +2300,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2332,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2361,10 +2358,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2390,10 +2387,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2419,10 +2416,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2448,10 +2445,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2477,10 +2474,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2506,10 +2503,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2535,10 +2532,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2564,10 +2561,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2593,10 +2590,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2622,10 +2619,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2651,10 +2648,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2680,10 +2677,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2709,10 +2706,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2738,10 +2735,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2767,10 +2764,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2796,10 +2793,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2825,10 +2822,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2854,10 +2851,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2883,10 +2880,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2912,10 +2909,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2941,10 +2938,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2970,10 +2967,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2999,10 +2996,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3028,10 +3025,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3057,10 +3054,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3086,10 +3083,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
